--- a/bdd_excel/Extensions_util.xlsx
+++ b/bdd_excel/Extensions_util.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/florianbour/Desktop/ENSEIRB/2A/SGBD/sgbd-jeux/bdd_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037960D5-FE0D-9341-9FC5-3AF386CE6091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648E5621-39B6-1A4D-A21E-ABF51634EB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16000" xr2:uid="{0A94509A-43AB-F541-BBF3-C3D05C51057A}"/>
   </bookViews>
@@ -393,7 +393,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
